--- a/exam_studyguides/exam2work.xlsx
+++ b/exam_studyguides/exam2work.xlsx
@@ -5,20 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbarry\datamining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbarry\datamining\exam_studyguides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF10E18-E743-4463-985F-2E06233023E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6554F39-FB06-40DD-BBDB-9DF9F54E45DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2625F236-56E9-4D1E-9162-6245552065A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2625F236-56E9-4D1E-9162-6245552065A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="pract4" sheetId="7" r:id="rId1"/>
-    <sheet name="week5pract quiz" sheetId="9" r:id="rId2"/>
-    <sheet name="pract4 work" sheetId="8" r:id="rId3"/>
-    <sheet name="clusters min" sheetId="5" r:id="rId4"/>
-    <sheet name="silhoute" sheetId="3" r:id="rId5"/>
-    <sheet name="euclidean" sheetId="1" r:id="rId6"/>
+    <sheet name="week7 pract quic" sheetId="14" r:id="rId1"/>
+    <sheet name="week7 knowledge checks" sheetId="13" r:id="rId2"/>
+    <sheet name="week6 knowledge" sheetId="10" r:id="rId3"/>
+    <sheet name="week6 pract quiz" sheetId="11" r:id="rId4"/>
+    <sheet name="project3 scores" sheetId="12" r:id="rId5"/>
+    <sheet name="week5pract quiz" sheetId="9" r:id="rId6"/>
+    <sheet name="pract4" sheetId="7" r:id="rId7"/>
+    <sheet name="pract4 work" sheetId="8" r:id="rId8"/>
+    <sheet name="clusters min" sheetId="5" r:id="rId9"/>
+    <sheet name="silhoute" sheetId="3" r:id="rId10"/>
+    <sheet name="euclidean" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="385">
   <si>
     <t>data</t>
   </si>
@@ -377,6 +382,825 @@
   </si>
   <si>
     <t xml:space="preserve">Subsets of itemsets that are frequent are frequent </t>
+  </si>
+  <si>
+    <t>Which reasons have contributed to deep learning success in recent decade? (select all that apply)</t>
+  </si>
+  <si>
+    <t>0.5 / 1 point</t>
+  </si>
+  <si>
+    <t>Increase in amount of available data.</t>
+  </si>
+  <si>
+    <t>Correct! deep learning requires large amount of data to be trained.</t>
+  </si>
+  <si>
+    <t>Increase in computation power</t>
+  </si>
+  <si>
+    <t>Correct! deep learning requires large amount of computation to be trained.</t>
+  </si>
+  <si>
+    <t>New Activation Functions.</t>
+  </si>
+  <si>
+    <t>This should not be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect! It did not aid deep learning methods to become popular. </t>
+  </si>
+  <si>
+    <t>Targeting new problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricted Boltzmann Machine (RBM) is a type of: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief Network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convolutional Neural Network </t>
+  </si>
+  <si>
+    <t>Recurrent Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoencoder </t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>RBM is not an RNN.</t>
+  </si>
+  <si>
+    <t>Correct! For very complex systems, where we get data from a lot more sensors than Principal Component Analysis (PCA) can handle, we can extract deep knowledge using neural networks such as autoencoders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the reason for using deep learning in recommendation systems. </t>
+  </si>
+  <si>
+    <t>To overcome cold start problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep learning is easy to implement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep learning can be used to explicitly ask user preferences </t>
+  </si>
+  <si>
+    <t>Deep learning is useful for recommendation systems, especially when size of the data is big.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive neural networks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boltzman machines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convolution Neural Network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurrent neural networks </t>
+  </si>
+  <si>
+    <t>Correct. Recurrent neural networks are effective for sequential problems and extracting knowledge from time-series.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are Convolutional Neural Networks (CNN) mostly used for image classification systems? </t>
+  </si>
+  <si>
+    <t>Images have less information content and is mostly background, CNN is very well equipped to remove background from images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image processing techniques commonly use convolution operation, and therefore CNNs are effective in extracting features from images. </t>
+  </si>
+  <si>
+    <t>CNN learning mechanism is fast and intuitive.</t>
+  </si>
+  <si>
+    <t>CNN has a very low complexity on image based classification applications.</t>
+  </si>
+  <si>
+    <t>Correct! Convolution operations are commonly used in image processing.</t>
+  </si>
+  <si>
+    <t>What is the purpose of a hidden layer in a Restricted Boltzman machine in a recommendation system?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is the wild guess about the user preferences </t>
+  </si>
+  <si>
+    <t>It is the real classification for an input value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is the actual user preference. </t>
+  </si>
+  <si>
+    <t>It is the rating for an item</t>
+  </si>
+  <si>
+    <t>Incorrect. Those are the inputs into a Restricted Boltzman machine.</t>
+  </si>
+  <si>
+    <t>Which deep learning system has self-loops in its architecture?</t>
+  </si>
+  <si>
+    <t>Correct! Recurrent neural networks have self-loops for the nodes in its architecture.</t>
+  </si>
+  <si>
+    <t>When a user does not know what to watch, it will recommend them a movie.</t>
+  </si>
+  <si>
+    <t>When a new user has arrived, we do not know which movies to recommend</t>
+  </si>
+  <si>
+    <t>Correct! Cold start is when you want to provide recommendations but do not have any prior knowledge about users or items.</t>
+  </si>
+  <si>
+    <t>When users do not like a movie we do not know how to provide a star rating to the movie</t>
+  </si>
+  <si>
+    <t>When a new movie has arrived, we do not know to whom to recommend the movie.</t>
+  </si>
+  <si>
+    <t>In an Restricted Boltzman Machines (RBM), why do we do backpropagation learning on the reversed machine?</t>
+  </si>
+  <si>
+    <t>To match the rating with a movie.</t>
+  </si>
+  <si>
+    <t>To derive the most likely rating for a movie</t>
+  </si>
+  <si>
+    <t>To match the rating with a user.</t>
+  </si>
+  <si>
+    <t>To adjust weights for better user preference extraction based on items’ rating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct! Input layer has the items’ rating and hidden layer makes a guess on user preferences. </t>
+  </si>
+  <si>
+    <t>What are autoencoders used for?</t>
+  </si>
+  <si>
+    <t>For reducing dimension of a data</t>
+  </si>
+  <si>
+    <t>For image classification</t>
+  </si>
+  <si>
+    <t>For increasing features extracted from a sensor</t>
+  </si>
+  <si>
+    <t>For time series prediction</t>
+  </si>
+  <si>
+    <t>Correct! Autoencoders are dimensionality reduction technique which can extract a lower dimension representation of data.</t>
+  </si>
+  <si>
+    <t>Which problem led to utilizing non-linear neural networks in form of multi-layer perceptron?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise and outliers. </t>
+  </si>
+  <si>
+    <t>High Computation Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curse of dimensionality </t>
+  </si>
+  <si>
+    <t>Correct! Single perceptron has linear boundaries and can not solve non-linear problem of XOR. This gap resulted in utilizing multi-layer perceptron to resolve the issue.</t>
+  </si>
+  <si>
+    <t>rue or False? A neural network can be used to extract knowledge for complex data.</t>
+  </si>
+  <si>
+    <t>ich deep learning systems are most suitable for sequential problems?</t>
+  </si>
+  <si>
+    <t>hat is the cold start problem in a movie recommendation system? (select all that apply)</t>
+  </si>
+  <si>
+    <t>Correct! Hidden layer is a guess about user preferences based on user ratings for items.</t>
+  </si>
+  <si>
+    <t>Which is an example of recursive neural networks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoencoders </t>
+  </si>
+  <si>
+    <t>Belief Networks</t>
+  </si>
+  <si>
+    <t>Tree Nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricted Boltzmann Machine </t>
+  </si>
+  <si>
+    <t>Why deep learning methods were not popular several decades ago when they were invented?</t>
+  </si>
+  <si>
+    <t>Cold Start Problem</t>
+  </si>
+  <si>
+    <t>Data amount was low.</t>
+  </si>
+  <si>
+    <t>Computation power was low</t>
+  </si>
+  <si>
+    <t>You want to decide on which architecture of neural network to use for processing stock market prices and dynamics. Which would be a better option?</t>
+  </si>
+  <si>
+    <t>Restricted Boltzmann Machine</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t>Recursive Neural Networks</t>
+  </si>
+  <si>
+    <t>Which are inputs to a recommendation system?</t>
+  </si>
+  <si>
+    <t>0.75 / 1 point</t>
+  </si>
+  <si>
+    <t>User Usage History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Preferences </t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n recommendation systems, we know the true user preferences. </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>What is user-based cold start problem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to increase number of new users to have better recommendations </t>
+  </si>
+  <si>
+    <t>How to recommend items to a new user without usage history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which new items to be added to system based on new users’ recommendations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to recommend items to current users with usage history. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">estricted Boltzmann Machine is example of what type of learning approach? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive Neural networks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convolutional Neural networks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurrent Neural networks </t>
+  </si>
+  <si>
+    <t>Which architecture of neural network would be better suited to solve the problem of recognizing a cat in a photo?</t>
+  </si>
+  <si>
+    <t>Recurrent Neural network</t>
+  </si>
+  <si>
+    <t>Multi Layer Perceptron</t>
+  </si>
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>Which application is Autoencoders used for?</t>
+  </si>
+  <si>
+    <t>Removing noise data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data dimension reduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule mining </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solving cold start problem </t>
+  </si>
+  <si>
+    <t>Which architecture is used in Autoencoders?</t>
+  </si>
+  <si>
+    <t>Recursive Neural network</t>
+  </si>
+  <si>
+    <t>Boltzmann Machines</t>
+  </si>
+  <si>
+    <t>kmeansse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dbScanSSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kmeansentropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DbScanEntropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kmeanspurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DbScanPurity</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>You passed with 94%</t>
+  </si>
+  <si>
+    <t>Your Output:</t>
+  </si>
+  <si>
+    <t>entropyKMeans : 2.3983029951155594</t>
+  </si>
+  <si>
+    <t>entropyDBSCAN : 0.4323</t>
+  </si>
+  <si>
+    <t>purityKMeans : 0.3301158301158301</t>
+  </si>
+  <si>
+    <t>purityDBSCAN : 0.3185328185328185</t>
+  </si>
+  <si>
+    <t>Minimum KMeans entropy : 0.3235</t>
+  </si>
+  <si>
+    <t>Minimum DBSCAN entropy : 0.1739</t>
+  </si>
+  <si>
+    <t>Maximum KMeans purity : 0.875</t>
+  </si>
+  <si>
+    <t>Maximum DBSCAN purity : 1</t>
+  </si>
+  <si>
+    <t>Note : The autograder has fixed values for minimumEntropy, maximumPurity, and standard deviation for KMeans and DBSCAN and uses these values to perform a few mathematical calculations. Your KMeans and DBSCAN Purity and Entropy should be in the range of these calculations. Below are the minEntropy and maxPurity values:</t>
+  </si>
+  <si>
+    <t>min entropy</t>
+  </si>
+  <si>
+    <t>max pruity</t>
+  </si>
+  <si>
+    <t>Solving Reinforcement Learning Problems</t>
+  </si>
+  <si>
+    <t>Which problem cannot be solved by Dynamic Programming based on reinforcement learning?</t>
+  </si>
+  <si>
+    <t>Robot movement in a room</t>
+  </si>
+  <si>
+    <t>Backgammon</t>
+  </si>
+  <si>
+    <t>Helicopter</t>
+  </si>
+  <si>
+    <t>To use the dynamic programming based reinforcement learning, the environment should be defined. However, for the helicopter, the environment would be sky. It is extremely difficult to define the sky as a finite space environment.</t>
+  </si>
+  <si>
+    <t>Select the correct statement about the Monte Carlo solution.</t>
+  </si>
+  <si>
+    <t>It requires the model of environment</t>
+  </si>
+  <si>
+    <t>Learn from sample episodes of simulated experience</t>
+  </si>
+  <si>
+    <t>It is impossible to focus on “important” states</t>
+  </si>
+  <si>
+    <t>It does not need to maintain exploration</t>
+  </si>
+  <si>
+    <t>Since Monte Carlo solution is learning from the sample episodes of simulated experience, it does not require the model environment, which is an alternative solution of dynamic programming based solution.</t>
+  </si>
+  <si>
+    <t>Select the correct statement about Temporal Difference Learning.</t>
+  </si>
+  <si>
+    <t>It does not require the model of environment</t>
+  </si>
+  <si>
+    <t>It learns from values of successors</t>
+  </si>
+  <si>
+    <t>It works for continuous task</t>
+  </si>
+  <si>
+    <t>It is usually faster than MC</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>It is combined ideas from Monte Carlo and Dynamic Programming. Therefore, it has more advantages as compared to sole usage of Monte Carlo or Dynamic Programming.</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Which among Dynamic Programming (DP), Monte Carlo (MC), and Temporal Difference Learning (TDL) requires a perfect model of the system?</t>
+  </si>
+  <si>
+    <t>TDL</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Correct! DP needs to divide problems into subproblems and hence requires a perfect model.</t>
+  </si>
+  <si>
+    <t>Knowledge Check: Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Select the correct statement about Reinforcement Learning.</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning is a supervised learning</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning is an unsupervised learning</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning is a rule mining.</t>
+  </si>
+  <si>
+    <t>Reinforcement learning is more general than supervised and unsupervised learning. It learns from interaction with environment to achieve a goal.</t>
+  </si>
+  <si>
+    <t>Select the correct statement about reinforcement learning as compared to the Markov Decision Process.</t>
+  </si>
+  <si>
+    <t>Transitions and rewards can be available</t>
+  </si>
+  <si>
+    <t>The policy should be unchanged based on experience</t>
+  </si>
+  <si>
+    <t>It explores the environment</t>
+  </si>
+  <si>
+    <t>Reinforcement learning explores the environment to learn the transition and rewards.</t>
+  </si>
+  <si>
+    <t>For which problems will you need to use reinforcement learning?</t>
+  </si>
+  <si>
+    <t>Identifying UFOs in images from space.</t>
+  </si>
+  <si>
+    <t>Voice Recognition Systems</t>
+  </si>
+  <si>
+    <t>Navigating a robot through an unknown territory while avoiding obstructions.</t>
+  </si>
+  <si>
+    <t>Anomalous activity detection in online transactions.</t>
+  </si>
+  <si>
+    <t>Correct! Any application that required unsupervised environment exploration. Where examples are not available.</t>
+  </si>
+  <si>
+    <t>What are the actions in Reinforcement Learning (RL)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic or deterministic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither stochastic nor deterministic. </t>
+  </si>
+  <si>
+    <t>Always stochastic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always deterministic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct! It is generally stochastic but can also be deterministic. </t>
+  </si>
+  <si>
+    <t>True or False? Markov Decision Process is a more challenging problem to solve compared to Reinforcement Learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct! In Reinforcement Learning we do not have a model of environment. </t>
+  </si>
+  <si>
+    <t>What is an issue with additive rewards approach?</t>
+  </si>
+  <si>
+    <t>Rewards can converge to zero.</t>
+  </si>
+  <si>
+    <t>Rewards can go to infinite value.</t>
+  </si>
+  <si>
+    <t>When to stop adding up rewards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the above </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct! For counting tasks, reward can go to infinity. </t>
+  </si>
+  <si>
+    <t>Which of the following statements are true about the difference between Markov Decision Process (MDP) and Reinforcement learning (RL)? (select all that apply)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL learns from interaction with environment while MDP has a model of environment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct! RL does not have knowledge of the environment while MDP has such knowledge. </t>
+  </si>
+  <si>
+    <t>RL does not necessarily have knowledge of transition matrix and rewards, but MDP always knows them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct! RL might or might not know transition matrix and rewards, but MDP always knows them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actions in both MDP and RL are always stochastic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both MDP and RL need to update policy based on experience from environment. </t>
+  </si>
+  <si>
+    <t>Knowledge Check: Markov Decision Process</t>
+  </si>
+  <si>
+    <t>What is the goal of the Markov Decision Process?</t>
+  </si>
+  <si>
+    <t>Minimize cumulative reward in the long run</t>
+  </si>
+  <si>
+    <t>Minimize cumulative reward in the current state</t>
+  </si>
+  <si>
+    <t>Maximize cumulative reward in the long run</t>
+  </si>
+  <si>
+    <t>Maximize cumulative reward in the current state</t>
+  </si>
+  <si>
+    <t>Correct! Markov Decision Process wants to choose the policy which provided the highest amount of award in long term.</t>
+  </si>
+  <si>
+    <t>What is the reward computation approach for the Bellman equation?</t>
+  </si>
+  <si>
+    <t>Infinite Horizon Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite Horizon Analysis </t>
+  </si>
+  <si>
+    <t>Discounted Rewards</t>
+  </si>
+  <si>
+    <t>Expected Rewards</t>
+  </si>
+  <si>
+    <t>Correct! Bellman equation is to discount reward recursively.</t>
+  </si>
+  <si>
+    <t>What is a policy in Markov Decision Process (MDP)?</t>
+  </si>
+  <si>
+    <t>It is the sequence of actions performed based on previous states</t>
+  </si>
+  <si>
+    <t>It is a mapping from the set of states to the set of actions</t>
+  </si>
+  <si>
+    <t>It is a sequence of state transitions</t>
+  </si>
+  <si>
+    <t>It is the set of values for actions and rewards for each states</t>
+  </si>
+  <si>
+    <t>Incorrect! Policy entails what actions you can take in each state</t>
+  </si>
+  <si>
+    <t>What are rewards used for in Markov Decision Process (MDP)? (select all that apply)</t>
+  </si>
+  <si>
+    <t>To transit from one state to the other</t>
+  </si>
+  <si>
+    <t>To compare between policies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewards are available for each action in a state. So, they can be used to evaluate policies, select actions or compare between policies. </t>
+  </si>
+  <si>
+    <t>To evaluate a policy.</t>
+  </si>
+  <si>
+    <t>To determine the current state of system</t>
+  </si>
+  <si>
+    <t>What are some of the ways to solve the infinite reward problem? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>Only evaluate policies until a maximum time horizon is reached</t>
+  </si>
+  <si>
+    <t>Correct! Limiting the horizon can be used.</t>
+  </si>
+  <si>
+    <t>Discounting factor</t>
+  </si>
+  <si>
+    <t>Correct! Discounting previous rewards can be used.</t>
+  </si>
+  <si>
+    <t>Expected reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct! Instead of cumulative reward, we can use expected reward. </t>
+  </si>
+  <si>
+    <t>Min reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which reinforcement learning solution requires the problem to be divided in to subproblems: </t>
+  </si>
+  <si>
+    <t>Dynamic programming</t>
+  </si>
+  <si>
+    <t>Temporal difference learning</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>How can you mitigate the weakness of Greedy Policy for Monte Carlo methods?</t>
+  </si>
+  <si>
+    <t>By using ε-greedy policy</t>
+  </si>
+  <si>
+    <t>Greedy policy is always optimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By running more experiments </t>
+  </si>
+  <si>
+    <t>What is the difference between ��Vπ​ and ��Qπ​</t>
+  </si>
+  <si>
+    <t>��Vπ​ is the value function for the policy starting from a given state, whereas ��Qπ​ is the value function of the policy for performing an action, starting from a given state.</t>
+  </si>
+  <si>
+    <t>��Vπ​ is the value function for the policy starting from a given state, whereas ��Qπ​ is the value function of the policy</t>
+  </si>
+  <si>
+    <t>��Vπ​ is the value function for the policy, whereas ��Qπ​ is the value function of the policy starting from a given state.</t>
+  </si>
+  <si>
+    <t>��Vπ​ is the value function for an action, whereas ��Qπ​ is the value function of the policy starting from a given state.</t>
+  </si>
+  <si>
+    <t>Correct! Q value is a restricted Value function that only applies to an action in a given state.</t>
+  </si>
+  <si>
+    <t>What is the similarity between Monte Carlo (MC) and Temporal Difference Learning (TDL)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not needing a perfect model of environment. </t>
+  </si>
+  <si>
+    <t>Diving the problem to subproblems</t>
+  </si>
+  <si>
+    <t>Deterministic actions</t>
+  </si>
+  <si>
+    <t>In what case can you use DP for solving RL problems?</t>
+  </si>
+  <si>
+    <t>When the number of states is very large</t>
+  </si>
+  <si>
+    <t>You need to try all actions to find the optimal one</t>
+  </si>
+  <si>
+    <t>When you can define the cost</t>
+  </si>
+  <si>
+    <t>When you have a perfect model of environment</t>
+  </si>
+  <si>
+    <t>Select all the methods used in Dynamic Programing in RL.</t>
+  </si>
+  <si>
+    <t>Repeat evaluation and improvement until convergence</t>
+  </si>
+  <si>
+    <t>Start with an arbitrary policy</t>
+  </si>
+  <si>
+    <t>Try to solve the whole problem at once</t>
+  </si>
+  <si>
+    <t>Need to have the perfect model of environment</t>
+  </si>
+  <si>
+    <t>For dynamic programming, what do we mean by Policy Improvement?</t>
+  </si>
+  <si>
+    <t>Improve Vπ from π</t>
+  </si>
+  <si>
+    <t>Learn from Sample Episodes of Simulated Experience</t>
+  </si>
+  <si>
+    <t>Compute π from Vπ</t>
+  </si>
+  <si>
+    <t>Improve π from Vπ</t>
+  </si>
+  <si>
+    <t>For dynamic programming, what do we mean by Policy Evaluation?</t>
+  </si>
+  <si>
+    <t>Compute Vπ from π</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the main differences between Reinforcement Learning (RL) and Markov Decision Process (MDP)? Select all that apply. </t>
+  </si>
+  <si>
+    <t>0.6666666666666666 / 1 point</t>
+  </si>
+  <si>
+    <t>MDP starts with an arbitrary policy</t>
+  </si>
+  <si>
+    <t>RL doesn’t assume that you have a model</t>
+  </si>
+  <si>
+    <t>MDP have Set of States (S), Set of Actions (A), Initial State S0 but RL does not</t>
+  </si>
+  <si>
+    <t>How does Reinforcement Learning overcome not having a complete model of the system?</t>
+  </si>
+  <si>
+    <t>By maximizing cumulative reward in the long run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By learning from the environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By using finite horizon </t>
+  </si>
+  <si>
+    <t>By learning from Sample Episodes of Simulated Experience</t>
   </si>
 </sst>
 </file>
@@ -386,7 +1210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +1261,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +1345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +1434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -654,6 +1497,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,11 +2056,3935 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D9AEF6-2B84-4385-AE6A-380CF44C7729}">
+  <dimension ref="A2:I84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="X79" sqref="X79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="27"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="B65" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="B66" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="B72" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="B78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C81" s="26"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53333C7-FBE5-4A20-B1D9-7F058136B02C}">
+  <dimension ref="A1:N1048574"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="str">
+        <f>A2</f>
+        <v>A</v>
+      </c>
+      <c r="F1" s="3" t="str">
+        <f>A3</f>
+        <v>B</v>
+      </c>
+      <c r="G1" s="3" t="str">
+        <f>A4</f>
+        <v>C</v>
+      </c>
+      <c r="H1" s="3" t="str">
+        <f>A5</f>
+        <v>D</v>
+      </c>
+      <c r="I1" s="3" t="str">
+        <f>A6</f>
+        <v>E</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>A2</f>
+        <v>A</v>
+      </c>
+      <c r="E2" s="10">
+        <f>SQRT(($B$2-$B$2)^2+($C$2-$C$2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>SQRT(($B$2-$B$3)^2+($C$2-$C$3)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SQRT(($B$2-$B$4)^2+($C$2-$C$4)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H2" s="10">
+        <f>SQRT(($B$2-$B$5)^2+($C$2-$C$5)^2)</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="I2" s="10">
+        <f>SQRT(($B$2-$B$6)^2+($C$2-$C$6)^2)</f>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="K2" s="11">
+        <f>AVERAGE(F2:G2)</f>
+        <v>1.2071067811865475</v>
+      </c>
+      <c r="L2" s="11">
+        <f>AVERAGE(H2:I2)</f>
+        <v>8.9109348621677569</v>
+      </c>
+      <c r="M2" s="11">
+        <f>(L2-K2)/MAX(K2,L2)</f>
+        <v>0.86453645999462558</v>
+      </c>
+      <c r="N2" s="8" t="str">
+        <f>A2</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="9" customFormat="1">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" ref="D3:D6" si="0">A3</f>
+        <v>B</v>
+      </c>
+      <c r="E3" s="10">
+        <f>SQRT(($B3-$B$2)^2+($C3-$C$2)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <f>SQRT(($B3-$B$3)^2+($C3-$C$3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <f>SQRT(($B3-$B$4)^2+($C3-$C$4)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <f>SQRT(($B3-$B$5)^2+($C3-$C$5)^2)</f>
+        <v>7.810249675906654</v>
+      </c>
+      <c r="I3" s="10">
+        <f>SQRT(($B3-$B$6)^2+($C3-$C$6)^2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="K3" s="11">
+        <f>AVERAGE(E3,G3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="11">
+        <f>AVERAGE(H3:I3)</f>
+        <v>8.1477655250726109</v>
+      </c>
+      <c r="M3" s="11">
+        <f>(L3-K3)/MAX(K3,L3)</f>
+        <v>0.87726696393965164</v>
+      </c>
+      <c r="N3" s="8" t="str">
+        <f>A3</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E4" s="10">
+        <f>SQRT(($B4-$B$2)^2+($C4-$C$2)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F4" s="10">
+        <f>SQRT(($B4-$B$3)^2+($C4-$C$3)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SQRT(($B4-$B$4)^2+($C4-$C$4)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <f>SQRT(($B4-$B$5)^2+($C4-$C$5)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I4" s="10">
+        <f>SQRT(($B4-$B$6)^2+($C4-$C$6)^2)</f>
+        <v>7.810249675906654</v>
+      </c>
+      <c r="K4" s="11">
+        <f>AVERAGE(E4:F4)</f>
+        <v>1.2071067811865475</v>
+      </c>
+      <c r="L4" s="11">
+        <f>AVERAGE(H4:I4)</f>
+        <v>7.5106761134173166</v>
+      </c>
+      <c r="M4" s="11">
+        <f>(L4-K4)/MAX(K4,L4)</f>
+        <v>0.83928120944662588</v>
+      </c>
+      <c r="N4" s="8" t="str">
+        <f>A4</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="13" customFormat="1">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E5" s="14">
+        <f>SQRT(($B5-$B$2)^2+($C5-$C$2)^2)</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="F5" s="14">
+        <f>SQRT(($B5-$B$3)^2+($C5-$C$3)^2)</f>
+        <v>7.810249675906654</v>
+      </c>
+      <c r="G5" s="14">
+        <f>SQRT(($B5-$B$4)^2+($C5-$C$4)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H5" s="14">
+        <f>SQRT(($B5-$B$5)^2+($C5-$C$5)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f>SQRT(($B5-$B$6)^2+($C5-$C$6)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <f>AVERAGE(I5)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <f>AVERAGE(E5:G5)</f>
+        <v>7.8745591646257536</v>
+      </c>
+      <c r="M5" s="15">
+        <f>(L5-K5)/MAX(K5,L5)</f>
+        <v>0.87300876416139972</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f>A5</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="13" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="E6" s="14">
+        <f>SQRT(($B6-$B$2)^2+($C6-$C$2)^2)</f>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="F6" s="14">
+        <f>SQRT(($B6-$B$3)^2+($C6-$C$3)^2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SQRT(($B6-$B$4)^2+($C6-$C$4)^2)</f>
+        <v>7.810249675906654</v>
+      </c>
+      <c r="H6" s="14">
+        <f>SQRT(($B6-$B$5)^2+($C6-$C$5)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <f>SQRT(($B6-$B$6)^2+($C6-$C$6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f>AVERAGE(H6)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <f>AVERAGE(E6:G6)</f>
+        <v>8.5050251691460375</v>
+      </c>
+      <c r="M6" s="15">
+        <f>(L6-K6)/MAX(K6,L6)</f>
+        <v>0.88242245259570384</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f>A6</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
+        <f>AVERAGE(M2:M6)</f>
+        <v>0.86730317002760127</v>
+      </c>
+    </row>
+    <row r="1048574" spans="12:12">
+      <c r="L1048574" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:I6">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D939127-2A55-46ED-95BD-4EF5CFB3D7C6}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>SQRT(($B$2-$B$2)^2+($C$2-$C$2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SQRT(($B$2-$B$3)^2+($C$2-$C$3)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SQRT(($B$2-$B$4)^2+($C$2-$C$4)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H2" s="5">
+        <f>SQRT(($B$2-$B$5)^2+($C$2-$C$5)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I2" s="5">
+        <f>SQRT(($B$2-$B$6)^2+($C$2-$C$6)^2)</f>
+        <v>4.7169905660283016</v>
+      </c>
+      <c r="J2" s="5">
+        <f>SQRT(($B$2-$B$7)^2+($C$2-$C$7)^2)</f>
+        <v>5.315072906367325</v>
+      </c>
+      <c r="K2" s="5">
+        <f>SQRT(($B$2-$B$8)^2+($C$2-$C$8)^2)</f>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E8" si="0">SQRT(($B3-$B$2)^2+($C3-$C$2)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F8" si="1">SQRT(($B3-$B$3)^2+($C3-$C$3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G8" si="2">SQRT(($B3-$B$4)^2+($C3-$C$4)^2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H8" si="3">SQRT(($B3-$B$5)^2+($C3-$C$5)^2)</f>
+        <v>6.103277807866851</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I8" si="4">SQRT(($B3-$B$6)^2+($C3-$C$6)^2)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J8" si="5">SQRT(($B3-$B$7)^2+($C3-$C$7)^2)</f>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="K3" s="5">
+        <f>SQRT(($B$3-$B$8)^2+($C$3-$C$8)^2)</f>
+        <v>3.2015621187164243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="3"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="5"/>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="K4" s="5">
+        <f>SQRT(($B$4-$B$8)^2+($C$4-$C$8)^2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>6.103277807866851</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="K5" s="5">
+        <f>SQRT(($B$5-$B$8)^2+($C$5-$C$8)^2)</f>
+        <v>2.9154759474226504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7169905660283016</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <f>SQRT(($B$6-$B$8)^2+($C$6-$C$8)^2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.315072906367325</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <f>SQRT(($B$7-$B$8)^2+($C$7-$C$8)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9154759474226504</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="K8" s="5">
+        <f>SQRT(($B$8-$B$8)^2+($C$8-$C$8)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H12">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="I12">
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="I13">
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I14">
+        <v>7.810249675906654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="F15">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="G15">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="F16">
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="G16">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E2:K8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ED0D62-33E2-418D-9D57-086131CD6662}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K167"/>
+  <sheetViews>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="T156" sqref="T156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="26"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="B87" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="B88" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="B90" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="B96" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="B98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="B100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="B104" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="B106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="B107" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="B109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="B110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="B111" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="B129" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="B130" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="B131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="B132" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="B136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="B137" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="B138" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="B139" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="B140" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="B142" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="B147" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="B148" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="B149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="B150" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="B151" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="B152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="B153" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="B154" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="B157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="B158" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="B159" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="B160" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="26"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC44A93-FDB6-4AE2-B7F1-053014B4ABD9}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:N125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="27"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="B51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="26"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="B59" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="B68" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="B89" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="B93" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="B95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="B100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="B101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="B103" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="B111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="B113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="B115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="B120" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="B125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4A8343-32AB-49AF-9B95-33B3C334E9EA}">
+  <dimension ref="A2:G84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F4D624-0E15-461A-A7AF-96493B9F385C}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>1335.2081311091199</v>
+      </c>
+      <c r="D3">
+        <v>1335.2081311091199</v>
+      </c>
+      <c r="E3">
+        <v>2.3983029951155501</v>
+      </c>
+      <c r="F3">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.33011583011583001</v>
+      </c>
+      <c r="H3">
+        <v>0.31853281853281801</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>1335.2081311091199</v>
+      </c>
+      <c r="D5">
+        <v>667.604065554562</v>
+      </c>
+      <c r="E5">
+        <v>2.3983029951155501</v>
+      </c>
+      <c r="F5">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.33011583011583001</v>
+      </c>
+      <c r="H5">
+        <v>0.31853281853281801</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>1335.2081311091199</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2.3983029951155501</v>
+      </c>
+      <c r="F6">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.33011583011583001</v>
+      </c>
+      <c r="H6">
+        <v>0.64190000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>1335.2081311091199</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2.3983029951155501</v>
+      </c>
+      <c r="F7">
+        <v>2.4323000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.33011583011583001</v>
+      </c>
+      <c r="H7">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>1335.2081311091199</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>2.3983029951155501</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.33011583011583001</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9">
+        <v>1335.2081311091199</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>2.3983029951155501</v>
+      </c>
+      <c r="F9">
+        <v>2.4323000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.33011583011583001</v>
+      </c>
+      <c r="H9">
+        <v>0.432</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="Q10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="Q12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="E15">
+        <v>0.32</v>
+      </c>
+      <c r="G15">
+        <v>0.875</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16">
+        <v>0.17</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="Q17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110FB4B4-7D8C-4D83-BBC3-13DBBF310E8B}">
+  <dimension ref="A2:Y99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="31">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="31">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="17.25">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="30">
+        <f>D38/D39</f>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="31">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="B42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="S44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="31">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="B46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="T46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="31">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15.75">
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="X53" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="B55" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="17.25">
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="17.25">
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="17.25">
+      <c r="P58" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="17.25">
+      <c r="P59" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="17.25">
+      <c r="A60" s="31">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="17.25">
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="17.25">
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="P62" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="17.25">
+      <c r="B63" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P63" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="17.25">
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="17.25">
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="P65" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" s="36"/>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" s="31">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="B74">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="B75" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="B76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" s="31">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="B83" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="B86" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="15.75">
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="R88" s="34"/>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15.75">
+      <c r="S90" s="37"/>
+      <c r="T90" s="34"/>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="31">
+        <v>10</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91" s="37"/>
+    </row>
+    <row r="92" spans="1:23" ht="15.75">
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="T92" s="34"/>
+    </row>
+    <row r="93" spans="1:23" ht="15.75">
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="T93" s="34"/>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="B96" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF25A4C-E062-41D1-8595-8339F2AF58E8}">
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2008,530 +6782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110FB4B4-7D8C-4D83-BBC3-13DBBF310E8B}">
-  <dimension ref="A2:Y99"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="W74" sqref="W74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="31">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="31">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="17.25">
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38">
-        <v>0.4</v>
-      </c>
-      <c r="F38" s="30">
-        <f>D38/D39</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="31">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="B42">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="S44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="31">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="T45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="B46" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="T46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
-      <c r="A52" s="31">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="15.75">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="X53" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
-      <c r="B54" t="b">
-        <v>1</v>
-      </c>
-      <c r="X54" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y54">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
-      <c r="B55" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="X55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="17.25">
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="P56" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="17.25">
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="P57" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="17.25">
-      <c r="P58" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q58">
-        <v>2</v>
-      </c>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="17.25">
-      <c r="P59" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="17.25">
-      <c r="A60" s="31">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="P60" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="17.25">
-      <c r="B61" t="s">
-        <v>74</v>
-      </c>
-      <c r="P61" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q61">
-        <v>4</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="17.25">
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="P62" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="17.25">
-      <c r="B63" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P63" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" ht="17.25">
-      <c r="B64" t="s">
-        <v>76</v>
-      </c>
-      <c r="P64" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="17.25">
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="P65" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="B66" t="s">
-        <v>78</v>
-      </c>
-      <c r="P66" s="36"/>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="X66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="B67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="A71" s="31">
-        <v>8</v>
-      </c>
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="B72" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
-      <c r="B74">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
-      <c r="B75" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
-      <c r="B76">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
-      <c r="A80" s="31">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
-      <c r="B81" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="W82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
-      <c r="B83" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
-      <c r="B84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
-      <c r="B86" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
-      <c r="B87" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="15.75">
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-      <c r="R88" s="34"/>
-    </row>
-    <row r="89" spans="1:23">
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="15.75">
-      <c r="S90" s="37"/>
-      <c r="T90" s="34"/>
-    </row>
-    <row r="91" spans="1:23">
-      <c r="A91" s="31">
-        <v>10</v>
-      </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91" s="37"/>
-    </row>
-    <row r="92" spans="1:23" ht="15.75">
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="T92" s="34"/>
-    </row>
-    <row r="93" spans="1:23" ht="15.75">
-      <c r="B93" t="s">
-        <v>38</v>
-      </c>
-      <c r="R93">
-        <v>3</v>
-      </c>
-      <c r="T93" s="34"/>
-    </row>
-    <row r="94" spans="1:23">
-      <c r="B94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="B95" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
-      <c r="B96" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FD71D8-61C8-4A53-93E1-2F809C07CA3E}">
   <dimension ref="A1:N1048574"/>
   <sheetViews>
@@ -3234,7 +7485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E62631B-64DB-408D-BD0C-62606F546407}">
   <dimension ref="A1:O1048575"/>
   <sheetViews>
@@ -3918,819 +8169,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53333C7-FBE5-4A20-B1D9-7F058136B02C}">
-  <dimension ref="A1:N1048574"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="str">
-        <f>A2</f>
-        <v>A</v>
-      </c>
-      <c r="F1" s="3" t="str">
-        <f>A3</f>
-        <v>B</v>
-      </c>
-      <c r="G1" s="3" t="str">
-        <f>A4</f>
-        <v>C</v>
-      </c>
-      <c r="H1" s="3" t="str">
-        <f>A5</f>
-        <v>D</v>
-      </c>
-      <c r="I1" s="3" t="str">
-        <f>A6</f>
-        <v>E</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <f>A2</f>
-        <v>A</v>
-      </c>
-      <c r="E2" s="10">
-        <f>SQRT(($B$2-$B$2)^2+($C$2-$C$2)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <f>SQRT(($B$2-$B$3)^2+($C$2-$C$3)^2)</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
-        <f>SQRT(($B$2-$B$4)^2+($C$2-$C$4)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="H2" s="10">
-        <f>SQRT(($B$2-$B$5)^2+($C$2-$C$5)^2)</f>
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="I2" s="10">
-        <f>SQRT(($B$2-$B$6)^2+($C$2-$C$6)^2)</f>
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="K2" s="11">
-        <f>AVERAGE(F2:G2)</f>
-        <v>1.2071067811865475</v>
-      </c>
-      <c r="L2" s="11">
-        <f>AVERAGE(H2:I2)</f>
-        <v>8.9109348621677569</v>
-      </c>
-      <c r="M2" s="11">
-        <f>(L2-K2)/MAX(K2,L2)</f>
-        <v>0.86453645999462558</v>
-      </c>
-      <c r="N2" s="8" t="str">
-        <f>A2</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="9" customFormat="1">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <f t="shared" ref="D3:D6" si="0">A3</f>
-        <v>B</v>
-      </c>
-      <c r="E3" s="10">
-        <f>SQRT(($B3-$B$2)^2+($C3-$C$2)^2)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <f>SQRT(($B3-$B$3)^2+($C3-$C$3)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <f>SQRT(($B3-$B$4)^2+($C3-$C$4)^2)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <f>SQRT(($B3-$B$5)^2+($C3-$C$5)^2)</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="I3" s="10">
-        <f>SQRT(($B3-$B$6)^2+($C3-$C$6)^2)</f>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="K3" s="11">
-        <f>AVERAGE(E3,G3)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="11">
-        <f>AVERAGE(H3:I3)</f>
-        <v>8.1477655250726109</v>
-      </c>
-      <c r="M3" s="11">
-        <f>(L3-K3)/MAX(K3,L3)</f>
-        <v>0.87726696393965164</v>
-      </c>
-      <c r="N3" s="8" t="str">
-        <f>A3</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="9" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="E4" s="10">
-        <f>SQRT(($B4-$B$2)^2+($C4-$C$2)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F4" s="10">
-        <f>SQRT(($B4-$B$3)^2+($C4-$C$3)^2)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <f>SQRT(($B4-$B$4)^2+($C4-$C$4)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <f>SQRT(($B4-$B$5)^2+($C4-$C$5)^2)</f>
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="I4" s="10">
-        <f>SQRT(($B4-$B$6)^2+($C4-$C$6)^2)</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="K4" s="11">
-        <f>AVERAGE(E4:F4)</f>
-        <v>1.2071067811865475</v>
-      </c>
-      <c r="L4" s="11">
-        <f>AVERAGE(H4:I4)</f>
-        <v>7.5106761134173166</v>
-      </c>
-      <c r="M4" s="11">
-        <f>(L4-K4)/MAX(K4,L4)</f>
-        <v>0.83928120944662588</v>
-      </c>
-      <c r="N4" s="8" t="str">
-        <f>A4</f>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="13">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="E5" s="14">
-        <f>SQRT(($B5-$B$2)^2+($C5-$C$2)^2)</f>
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="F5" s="14">
-        <f>SQRT(($B5-$B$3)^2+($C5-$C$3)^2)</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="G5" s="14">
-        <f>SQRT(($B5-$B$4)^2+($C5-$C$4)^2)</f>
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="H5" s="14">
-        <f>SQRT(($B5-$B$5)^2+($C5-$C$5)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <f>SQRT(($B5-$B$6)^2+($C5-$C$6)^2)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <f>AVERAGE(I5)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="15">
-        <f>AVERAGE(E5:G5)</f>
-        <v>7.8745591646257536</v>
-      </c>
-      <c r="M5" s="15">
-        <f>(L5-K5)/MAX(K5,L5)</f>
-        <v>0.87300876416139972</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f>A5</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="E6" s="14">
-        <f>SQRT(($B6-$B$2)^2+($C6-$C$2)^2)</f>
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="F6" s="14">
-        <f>SQRT(($B6-$B$3)^2+($C6-$C$3)^2)</f>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="G6" s="14">
-        <f>SQRT(($B6-$B$4)^2+($C6-$C$4)^2)</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="H6" s="14">
-        <f>SQRT(($B6-$B$5)^2+($C6-$C$5)^2)</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <f>SQRT(($B6-$B$6)^2+($C6-$C$6)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <f>AVERAGE(H6)</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="15">
-        <f>AVERAGE(E6:G6)</f>
-        <v>8.5050251691460375</v>
-      </c>
-      <c r="M6" s="15">
-        <f>(L6-K6)/MAX(K6,L6)</f>
-        <v>0.88242245259570384</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f>A6</f>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7">
-        <f>AVERAGE(M2:M6)</f>
-        <v>0.86730317002760127</v>
-      </c>
-    </row>
-    <row r="1048574" spans="12:12">
-      <c r="L1048574" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:I6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D939127-2A55-46ED-95BD-4EF5CFB3D7C6}">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <f>SQRT(($B$2-$B$2)^2+($C$2-$C$2)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <f>SQRT(($B$2-$B$3)^2+($C$2-$C$3)^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="G2" s="5">
-        <f>SQRT(($B$2-$B$4)^2+($C$2-$C$4)^2)</f>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="H2" s="5">
-        <f>SQRT(($B$2-$B$5)^2+($C$2-$C$5)^2)</f>
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="I2" s="5">
-        <f>SQRT(($B$2-$B$6)^2+($C$2-$C$6)^2)</f>
-        <v>4.7169905660283016</v>
-      </c>
-      <c r="J2" s="5">
-        <f>SQRT(($B$2-$B$7)^2+($C$2-$C$7)^2)</f>
-        <v>5.315072906367325</v>
-      </c>
-      <c r="K2" s="5">
-        <f>SQRT(($B$2-$B$8)^2+($C$2-$C$8)^2)</f>
-        <v>4.3011626335213133</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E8" si="0">SQRT(($B3-$B$2)^2+($C3-$C$2)^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F8" si="1">SQRT(($B3-$B$3)^2+($C3-$C$3)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G8" si="2">SQRT(($B3-$B$4)^2+($C3-$C$4)^2)</f>
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H8" si="3">SQRT(($B3-$B$5)^2+($C3-$C$5)^2)</f>
-        <v>6.103277807866851</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="4">SQRT(($B3-$B$6)^2+($C3-$C$6)^2)</f>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J8" si="5">SQRT(($B3-$B$7)^2+($C3-$C$7)^2)</f>
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="K3" s="5">
-        <f>SQRT(($B$3-$B$8)^2+($C$3-$C$8)^2)</f>
-        <v>3.2015621187164243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="3"/>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="5"/>
-        <v>1.8027756377319946</v>
-      </c>
-      <c r="K4" s="5">
-        <f>SQRT(($B$4-$B$8)^2+($C$4-$C$8)^2)</f>
-        <v>0.70710678118654757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>6.103277807866851</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="2"/>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="5"/>
-        <v>2.0615528128088303</v>
-      </c>
-      <c r="K5" s="5">
-        <f>SQRT(($B$5-$B$8)^2+($C$5-$C$8)^2)</f>
-        <v>2.9154759474226504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7169905660283016</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <f>SQRT(($B$6-$B$8)^2+($C$6-$C$8)^2)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>5.315072906367325</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8027756377319946</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="3"/>
-        <v>2.0615528128088303</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <f>SQRT(($B$7-$B$8)^2+($C$7-$C$8)^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.3011626335213133</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>3.2015621187164243</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="3"/>
-        <v>2.9154759474226504</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="5"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="K8" s="5">
-        <f>SQRT(($B$8-$B$8)^2+($C$8-$C$8)^2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="H12">
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="I12">
-        <v>9.2195444572928871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="I13">
-        <v>8.4852813742385695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="I14">
-        <v>7.810249675906654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="F15">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="G15">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="F16">
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="G16">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E2:K8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/exam_studyguides/exam2work.xlsx
+++ b/exam_studyguides/exam2work.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbarry\datamining\exam_studyguides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6554F39-FB06-40DD-BBDB-9DF9F54E45DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBCA9A5-8605-4CE4-BE17-AC42432FC0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2625F236-56E9-4D1E-9162-6245552065A3}"/>
+    <workbookView minimized="1" xWindow="31515" yWindow="75" windowWidth="21600" windowHeight="11505" firstSheet="2" activeTab="8" xr2:uid="{2625F236-56E9-4D1E-9162-6245552065A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="week7 pract quic" sheetId="14" r:id="rId1"/>
-    <sheet name="week7 knowledge checks" sheetId="13" r:id="rId2"/>
-    <sheet name="week6 knowledge" sheetId="10" r:id="rId3"/>
-    <sheet name="week6 pract quiz" sheetId="11" r:id="rId4"/>
-    <sheet name="project3 scores" sheetId="12" r:id="rId5"/>
+    <sheet name="week7 notes" sheetId="15" r:id="rId1"/>
+    <sheet name="week7 pract quic" sheetId="14" r:id="rId2"/>
+    <sheet name="week7 knowledge checks" sheetId="13" r:id="rId3"/>
+    <sheet name="week6 knowledge" sheetId="10" r:id="rId4"/>
+    <sheet name="week6 pract quiz" sheetId="11" r:id="rId5"/>
     <sheet name="week5pract quiz" sheetId="9" r:id="rId6"/>
     <sheet name="pract4" sheetId="7" r:id="rId7"/>
     <sheet name="pract4 work" sheetId="8" r:id="rId8"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="425">
   <si>
     <t>data</t>
   </si>
@@ -717,66 +717,6 @@
     <t>Boltzmann Machines</t>
   </si>
   <si>
-    <t>kmeansse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dbScanSSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kmeansentropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DbScanEntropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kmeanspurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DbScanPurity</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>You passed with 94%</t>
-  </si>
-  <si>
-    <t>Your Output:</t>
-  </si>
-  <si>
-    <t>entropyKMeans : 2.3983029951155594</t>
-  </si>
-  <si>
-    <t>entropyDBSCAN : 0.4323</t>
-  </si>
-  <si>
-    <t>purityKMeans : 0.3301158301158301</t>
-  </si>
-  <si>
-    <t>purityDBSCAN : 0.3185328185328185</t>
-  </si>
-  <si>
-    <t>Minimum KMeans entropy : 0.3235</t>
-  </si>
-  <si>
-    <t>Minimum DBSCAN entropy : 0.1739</t>
-  </si>
-  <si>
-    <t>Maximum KMeans purity : 0.875</t>
-  </si>
-  <si>
-    <t>Maximum DBSCAN purity : 1</t>
-  </si>
-  <si>
-    <t>Note : The autograder has fixed values for minimumEntropy, maximumPurity, and standard deviation for KMeans and DBSCAN and uses these values to perform a few mathematical calculations. Your KMeans and DBSCAN Purity and Entropy should be in the range of these calculations. Below are the minEntropy and maxPurity values:</t>
-  </si>
-  <si>
-    <t>min entropy</t>
-  </si>
-  <si>
-    <t>max pruity</t>
-  </si>
-  <si>
     <t>Solving Reinforcement Learning Problems</t>
   </si>
   <si>
@@ -1201,6 +1141,186 @@
   </si>
   <si>
     <t>By learning from Sample Episodes of Simulated Experience</t>
+  </si>
+  <si>
+    <t>markov a mathmatical construct</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>determinstic transtion matrizx</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>V = set of variables</t>
+  </si>
+  <si>
+    <t>probabilistic  transtion matrizx</t>
+  </si>
+  <si>
+    <t>if you give assistance you get a reward</t>
+  </si>
+  <si>
+    <t>you can have postive or negative rewards</t>
+  </si>
+  <si>
+    <t>the aim is to evaluate policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what defintion of policies? </t>
+  </si>
+  <si>
+    <t>pi is policy</t>
+  </si>
+  <si>
+    <t>basically a mapping between S and A</t>
+  </si>
+  <si>
+    <t>pi is a collection of tuples, is you are in (state 1, take action1), etc…</t>
+  </si>
+  <si>
+    <t>how do we evaulate policy?</t>
+  </si>
+  <si>
+    <t>even if its executed there are still probabilities, it might not successful</t>
+  </si>
+  <si>
+    <t>the markov property is that it only depends on the curreent state and action. Doesn’t take into account past</t>
+  </si>
+  <si>
+    <t>good policy would max reward</t>
+  </si>
+  <si>
+    <t>accumulate reward over time</t>
+  </si>
+  <si>
+    <t>exectute policy</t>
+  </si>
+  <si>
+    <t>chose intial state</t>
+  </si>
+  <si>
+    <t>perform action</t>
+  </si>
+  <si>
+    <t>use T aka transition matrix to get to current state</t>
+  </si>
+  <si>
+    <t>then repeat 2 for infitite time and compare rewards</t>
+  </si>
+  <si>
+    <t>this implies that you might have infitite reward, so how do you compare infiite? That’s a problem</t>
+  </si>
+  <si>
+    <t>many different solutions:</t>
+  </si>
+  <si>
+    <t>finitie horizon analysis</t>
+  </si>
+  <si>
+    <t>discounting rewards</t>
+  </si>
+  <si>
+    <t>whatever reward you got in past, ignore it. How you do it? Well talk later</t>
+  </si>
+  <si>
+    <t>expected reward</t>
+  </si>
+  <si>
+    <t>typically used very often</t>
+  </si>
+  <si>
+    <t>to use we need to define a value function. Vpi(s) is the total discounted reward if we start at state s and follow policy pi</t>
+  </si>
+  <si>
+    <t>c alculate value function</t>
+  </si>
+  <si>
+    <t>bellman equation is the recursive way</t>
+  </si>
+  <si>
+    <t>fix a policy and execute for a long time the result is a markov chain</t>
+  </si>
+  <si>
+    <t>Introduction to the Markov Decision Process</t>
+  </si>
+  <si>
+    <t>Introduction to Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>overall problem much more general than super or unsupervised</t>
+  </si>
+  <si>
+    <t>agent performs action to explore enviornemnt, each action has rewards and results in new state</t>
+  </si>
+  <si>
+    <t>does not assume planned knowledge, MDK assumes model</t>
+  </si>
+  <si>
+    <t>ex. - naviagate a robot</t>
+  </si>
+  <si>
+    <t>trainsitions and rewards are not available - big proble. You get this as you explore the problem. The intial starting condition you need to change the policy with experience</t>
+  </si>
+  <si>
+    <t>how do you know you explored entire environement? How do you change the step? These 3 issues are unique to reinforment learning, and don’t exist in markox decision process (MDP)</t>
+  </si>
+  <si>
+    <t>to compute rewards</t>
+  </si>
+  <si>
+    <t>bounded rewards - limit to N. hard to say when N is good</t>
+  </si>
+  <si>
+    <t>run it infitinte - but can just go forever….</t>
+  </si>
+  <si>
+    <t>discounted rewards - as you go you discount by gamma, so as you go past rewards diminish</t>
+  </si>
+  <si>
+    <t>value function</t>
+  </si>
+  <si>
+    <t>what is the best action possible? Greedy state</t>
+  </si>
+  <si>
+    <t>state value function</t>
+  </si>
+  <si>
+    <t>expected reutnr when starting in s and following pi</t>
+  </si>
+  <si>
+    <t>state action value function: Qpi(s,a)</t>
+  </si>
+  <si>
+    <t>Vpi(s)</t>
+  </si>
+  <si>
+    <t>expected return when starting in s, performing a, and following pi</t>
+  </si>
+  <si>
+    <t>bellman equation</t>
+  </si>
+  <si>
+    <t>useful for find optimal polciy</t>
+  </si>
+  <si>
+    <t>cas estimate from experience. Pick the best action using Qpi(s,a)</t>
+  </si>
+  <si>
+    <t>iterate way to compute value</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,11 +1388,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1434,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1499,11 +1614,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2056,457 +2167,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D9AEF6-2B84-4385-AE6A-380CF44C7729}">
-  <dimension ref="A2:I84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A4BE64-51A7-41A8-A876-E6EE5396DA29}">
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="X79" sqref="X79"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="42" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="42" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="42" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" t="s">
+        <v>369</v>
+      </c>
+      <c r="L4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="G5" t="s">
+        <v>373</v>
+      </c>
+      <c r="L5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="F12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="F13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="26" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="1:7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="C23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="D27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="E28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="F29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="F30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="G31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="G32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="G33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="G34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="H35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="F37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-    </row>
-    <row r="47" spans="1:7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="B53" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="B56" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="B57" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="B58" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="B59" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="C59" s="27"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="B63" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="B64" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="B65" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="B67" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="B70" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="B72" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="B78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="B80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="C81" s="26"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="C52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="C56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="C57" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="D58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="C59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="D60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="C61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="D62" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="C63" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="D64" t="s">
+        <v>424</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2515,7 +2472,7 @@
   <dimension ref="A1:N1048574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N8"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2852,7 +2809,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3050,7 +3007,7 @@
         <v>6.103277807866851</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="2"/>
+        <f>SQRT(($B5-$B$4)^2+($C5-$C$4)^2)</f>
         <v>3.6055512754639891</v>
       </c>
       <c r="H5" s="5">
@@ -3326,11 +3283,450 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D9AEF6-2B84-4385-AE6A-380CF44C7729}">
+  <dimension ref="A2:G84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="27"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="26"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ED0D62-33E2-418D-9D57-086131CD6662}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="T156" sqref="T156"/>
     </sheetView>
   </sheetViews>
@@ -3338,7 +3734,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3346,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3356,17 +3752,17 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="26" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3381,7 +3777,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3389,7 +3785,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3399,12 +3795,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="26" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -3413,12 +3809,12 @@
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3428,7 +3824,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3436,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3446,27 +3842,27 @@
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="26" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3476,7 +3872,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3484,12 +3880,12 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3499,22 +3895,22 @@
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" s="26" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3524,12 +3920,12 @@
     </row>
     <row r="43" spans="1:2">
       <c r="B43" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3537,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3547,17 +3943,17 @@
     </row>
     <row r="49" spans="1:4">
       <c r="B49" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3573,7 +3969,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3581,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3591,17 +3987,17 @@
     </row>
     <row r="58" spans="1:4">
       <c r="B58" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="B60" s="26" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -3618,7 +4014,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="B63" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3626,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3636,17 +4032,17 @@
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" s="26" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -3657,7 +4053,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3667,7 +4063,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3675,7 +4071,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3685,24 +4081,24 @@
     </row>
     <row r="77" spans="1:8">
       <c r="B77" s="26" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3712,7 +4108,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="B82" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3720,7 +4116,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3729,7 +4125,7 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="B87" s="41" t="b">
+      <c r="B87" s="40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3745,7 +4141,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="B90" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3753,7 +4149,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3763,12 +4159,12 @@
     </row>
     <row r="95" spans="1:5">
       <c r="B95" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="B96" s="26" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -3776,12 +4172,12 @@
     </row>
     <row r="97" spans="1:11">
       <c r="B97" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="B98" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3791,7 +4187,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="B100" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3799,7 +4195,7 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3809,7 +4205,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="26" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
@@ -3826,12 +4222,12 @@
     </row>
     <row r="106" spans="1:11">
       <c r="B106" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="B107" s="26" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C107" s="26"/>
       <c r="D107" s="26"/>
@@ -3850,22 +4246,22 @@
     </row>
     <row r="109" spans="1:11">
       <c r="B109" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3873,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3883,17 +4279,17 @@
     </row>
     <row r="117" spans="1:5">
       <c r="B117" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="B118" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="B119" s="26" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
@@ -3901,7 +4297,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="B120" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3911,7 +4307,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="B122" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3919,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3929,24 +4325,24 @@
     </row>
     <row r="127" spans="1:5">
       <c r="B127" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="B128" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="B129" s="26" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C129" s="26"/>
       <c r="D129" s="26"/>
     </row>
     <row r="130" spans="1:7">
       <c r="B130" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3956,7 +4352,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="B132" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3964,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3974,12 +4370,12 @@
     </row>
     <row r="137" spans="1:7">
       <c r="B137" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="B138" s="26" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
@@ -3989,12 +4385,12 @@
     </row>
     <row r="139" spans="1:7">
       <c r="B139" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="B140" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4004,7 +4400,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="B142" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4012,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4022,12 +4418,12 @@
     </row>
     <row r="147" spans="1:7">
       <c r="B147" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="B148" s="26" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C148" s="26"/>
       <c r="D148" s="26"/>
@@ -4039,12 +4435,12 @@
     </row>
     <row r="150" spans="1:7">
       <c r="B150" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="B151" s="26" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C151" s="26"/>
       <c r="D151" s="26"/>
@@ -4056,12 +4452,12 @@
     </row>
     <row r="153" spans="1:7">
       <c r="B153" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="B154" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4069,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4079,7 +4475,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="B158" s="26" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
@@ -4094,12 +4490,12 @@
     </row>
     <row r="160" spans="1:7">
       <c r="B160" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="26" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C161" s="26"/>
     </row>
@@ -4110,12 +4506,12 @@
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="2:3">
@@ -4125,12 +4521,12 @@
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4139,12 +4535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC44A93-FDB6-4AE2-B7F1-053014B4ABD9}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
@@ -4810,12 +5206,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4A8343-32AB-49AF-9B95-33B3C334E9EA}">
   <dimension ref="A2:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5199,257 +5595,6 @@
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F4D624-0E15-461A-A7AF-96493B9F385C}">
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>94</v>
-      </c>
-      <c r="C3">
-        <v>1335.2081311091199</v>
-      </c>
-      <c r="D3">
-        <v>1335.2081311091199</v>
-      </c>
-      <c r="E3">
-        <v>2.3983029951155501</v>
-      </c>
-      <c r="F3">
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="G3">
-        <v>0.33011583011583001</v>
-      </c>
-      <c r="H3">
-        <v>0.31853281853281801</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>94</v>
-      </c>
-      <c r="C5">
-        <v>1335.2081311091199</v>
-      </c>
-      <c r="D5">
-        <v>667.604065554562</v>
-      </c>
-      <c r="E5">
-        <v>2.3983029951155501</v>
-      </c>
-      <c r="F5">
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="G5">
-        <v>0.33011583011583001</v>
-      </c>
-      <c r="H5">
-        <v>0.31853281853281801</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>94</v>
-      </c>
-      <c r="C6">
-        <v>1335.2081311091199</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2.3983029951155501</v>
-      </c>
-      <c r="F6">
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="G6">
-        <v>0.33011583011583001</v>
-      </c>
-      <c r="H6">
-        <v>0.64190000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>94</v>
-      </c>
-      <c r="C7">
-        <v>1335.2081311091199</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2.3983029951155501</v>
-      </c>
-      <c r="F7">
-        <v>2.4323000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.33011583011583001</v>
-      </c>
-      <c r="H7">
-        <v>0.64190000000000003</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>1335.2081311091199</v>
-      </c>
-      <c r="D8">
-        <v>500</v>
-      </c>
-      <c r="E8">
-        <v>2.3983029951155501</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.33011583011583001</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="C9">
-        <v>1335.2081311091199</v>
-      </c>
-      <c r="D9">
-        <v>500</v>
-      </c>
-      <c r="E9">
-        <v>2.3983029951155501</v>
-      </c>
-      <c r="F9">
-        <v>2.4323000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.33011583011583001</v>
-      </c>
-      <c r="H9">
-        <v>0.432</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="Q10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="Q12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="D14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G14" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="E15">
-        <v>0.32</v>
-      </c>
-      <c r="G15">
-        <v>0.875</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="E16">
-        <v>0.17</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="17:17">
-      <c r="Q17" t="s">
-        <v>239</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5460,8 +5605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110FB4B4-7D8C-4D83-BBC3-13DBBF310E8B}">
   <dimension ref="A2:Y99"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="W74" sqref="W74"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5983,8 +6128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF25A4C-E062-41D1-8595-8339F2AF58E8}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6787,7 +6932,7 @@
   <dimension ref="A1:N1048574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7489,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E62631B-64DB-408D-BD0C-62606F546407}">
   <dimension ref="A1:O1048575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7964,7 +8109,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="16.5" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="E16" s="19" t="s">
         <v>1</v>
       </c>
@@ -7984,7 +8129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:10" ht="16.5" thickBot="1">
+    <row r="17" spans="5:10" ht="15.75" thickBot="1">
       <c r="E17" s="19" t="s">
         <v>2</v>
       </c>
@@ -8002,7 +8147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:10" ht="16.5" thickBot="1">
+    <row r="18" spans="5:10" ht="15.75" thickBot="1">
       <c r="E18" s="20" t="s">
         <v>3</v>
       </c>
@@ -8018,7 +8163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:10" ht="16.5" thickBot="1">
+    <row r="19" spans="5:10" ht="15.75" thickBot="1">
       <c r="E19" s="19" t="s">
         <v>5</v>
       </c>
@@ -8032,7 +8177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="16.5" thickBot="1">
+    <row r="20" spans="5:10" ht="15.75" thickBot="1">
       <c r="E20" s="19" t="s">
         <v>4</v>
       </c>
